--- a/Bystander Intervention/MetaData/Book3.xlsx
+++ b/Bystander Intervention/MetaData/Book3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Documents\Games\SeniorDesign480\Bystander Intervention\MetaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{844B8FB0-804F-439F-B4B7-4046A1A5EC61}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D523DBEF-4AE7-40E0-BDEE-82BA67DC8D66}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27480" windowHeight="12810" xr2:uid="{6CCB2488-0D6D-4EC9-A2A8-43151E4FAC94}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +461,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -477,6 +477,15 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Duplicate Scene ID" error="This scene ID already exists. You are either using the wrong ID, or you need to update an existing entry." sqref="A2:A564" xr:uid="{B34EEDD6-D531-4CA9-8623-416BEE6A7F5F}">
+      <formula1>COUNTIF($A:$A,A2)=1</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Duplicate Title" error="You have entered a duplicate Title. This scene either already exists, and you need to find it, or you need to create a more meaningful (and unique) title." sqref="B1:B1048576" xr:uid="{953A7014-D9FA-41DA-B1BF-3E2CB17FD53F}">
+      <formula1>COUNTIF($B:$B,B1)=1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bystander Intervention/MetaData/Book3.xlsx
+++ b/Bystander Intervention/MetaData/Book3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Documents\Games\SeniorDesign480\Bystander Intervention\MetaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D523DBEF-4AE7-40E0-BDEE-82BA67DC8D66}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FD9F0B-AAD1-4190-A090-65FF5B617C14}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27480" windowHeight="12810" xr2:uid="{6CCB2488-0D6D-4EC9-A2A8-43151E4FAC94}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Title</t>
   </si>
@@ -49,6 +49,48 @@
   </si>
   <si>
     <t>Pick up a wallet</t>
+  </si>
+  <si>
+    <t>Blah</t>
+  </si>
+  <si>
+    <t>Option one</t>
+  </si>
+  <si>
+    <t>Helped pick up a wallet</t>
+  </si>
+  <si>
+    <t>Left them alone</t>
+  </si>
+  <si>
+    <t>Fought someone</t>
+  </si>
+  <si>
+    <t>Called the police</t>
+  </si>
+  <si>
+    <t>Option two</t>
+  </si>
+  <si>
+    <t>Stole Wallet</t>
+  </si>
+  <si>
+    <t>Told them to leave</t>
+  </si>
+  <si>
+    <t>Called a professor</t>
+  </si>
+  <si>
+    <t>Asked random questions</t>
+  </si>
+  <si>
+    <t>Doot</t>
+  </si>
+  <si>
+    <t>Did thing 1</t>
+  </si>
+  <si>
+    <t>did thing 2</t>
   </si>
 </sst>
 </file>
@@ -400,15 +442,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED39810-76AD-4451-B4B4-55408CB96D54}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -424,8 +471,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -441,8 +494,14 @@
       <c r="E2">
         <v>6</v>
       </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -458,8 +517,14 @@
       <c r="E3">
         <v>4</v>
       </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
@@ -474,6 +539,58 @@
       </c>
       <c r="E4">
         <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
